--- a/기획/컨텐츠 기획/(김찬우)룬 컨텐츠 기획.xlsx
+++ b/기획/컨텐츠 기획/(김찬우)룬 컨텐츠 기획.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0623_\Desktop\1team_UnityProject\기획\컨텐츠 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC902C7F-2DFF-4B0D-B6EE-1E8C7EE77DFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C150A369-CF7B-45C6-A152-93C9DEDED5C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A4D09CD8-49D7-4F41-935B-6273C98DD4B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A4D09CD8-49D7-4F41-935B-6273C98DD4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="기획" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="룬" sheetId="2" r:id="rId3"/>
     <sheet name="밸런스" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="130">
   <si>
     <t>Rune System</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -653,15 +653,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>날카로움</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단단함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ran</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 시작 골드 +2 Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4round 시작할 때, EXP +4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 클리어 시, (남아있는 골드 X 0.5) 만큼 DNA 추가 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 연승 골드 상향 ( 2 연승~ = 2Gold, 5연승~ = 3Gold )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 랜덤한 4cost 유닛 한 기를 가진 채로 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금수저</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장촉진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이빨 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재물축적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 클리어 시, (남아있는 골드 X 2) 만큼EXP 추가 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 클리어 시, 스테이지 보상 EXP 20% 추가 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 클리어 시, 스테이지 보상 DNA 20% 추가 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장투자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재물투자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지휘관</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +884,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1442,13 +1514,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1461,410 +1557,425 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2197,278 +2308,278 @@
   <sheetData>
     <row r="1" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="15" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="8" spans="2:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="10" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="10"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="10"/>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="10"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="10"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="10"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="3:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="23" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C24" s="10"/>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C26" s="10"/>
-      <c r="D26" s="16" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="10"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C27" s="10"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C28" s="10"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C29" s="10"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2500,265 +2611,265 @@
   <sheetData>
     <row r="1" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="15" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="8" spans="2:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="10" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="10"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="10"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="10"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="10"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="10"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="3:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="22" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C23" s="10"/>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C25" s="10"/>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="10"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C26" s="10"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C27" s="10"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C28" s="10"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2772,15 +2883,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A42448A-65B3-4FBA-8177-653E15DA5067}">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="0.875" customWidth="1"/>
     <col min="3" max="3" width="1.625" customWidth="1"/>
     <col min="4" max="4" width="6.75" customWidth="1"/>
@@ -2790,901 +2901,919 @@
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
     <col min="12" max="12" width="1.625" customWidth="1"/>
-    <col min="20" max="20" width="11.5" customWidth="1"/>
-    <col min="21" max="21" width="1.625" customWidth="1"/>
+    <col min="18" max="18" width="11.5" customWidth="1"/>
+    <col min="19" max="19" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="2:12" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="8" spans="2:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="10"/>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="10"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="10"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="10"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="10"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="10"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="10"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="21" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="10"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="10"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="21" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="10"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="10"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="10"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="10"/>
-      <c r="D15" s="44" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="80" t="s">
+      <c r="G15" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="10"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="10"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="34" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C17" s="10"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="34" t="s">
+      <c r="J16" s="72"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C17" s="9"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C18" s="10"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="34" t="s">
+      <c r="J17" s="72"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C18" s="9"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C19" s="10"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="34" t="s">
+      <c r="J18" s="72"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C19" s="9"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C20" s="10"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="21" t="s">
+      <c r="J19" s="77"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C20" s="9"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C21" s="10"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="21" t="s">
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C21" s="9"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="10"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36" t="s">
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="9"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="10"/>
-      <c r="D23" s="83" t="s">
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="9"/>
+      <c r="D23" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="84" t="s">
+      <c r="E23" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="84" t="s">
+      <c r="G23" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="85" t="s">
+      <c r="H23" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:21" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="26" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="26" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="17" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="28" spans="1:21" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-    </row>
-    <row r="29" spans="1:21" s="56" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="70" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="28" spans="1:19" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="1:19" s="29" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="64" t="s">
+      <c r="B29" s="139"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="54" t="s">
+      <c r="H29" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="54" t="s">
+      <c r="I29" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="54" t="s">
+      <c r="J29" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="57" t="s">
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="U29" s="53"/>
-    </row>
-    <row r="30" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70" t="s">
+      <c r="S29" s="27"/>
+    </row>
+    <row r="30" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="65" t="s">
+      <c r="B30" s="135"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="50" t="s">
+      <c r="J30" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="63" t="s">
+      <c r="K30" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="58" t="s">
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="U30" s="20"/>
-    </row>
-    <row r="31" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="70" t="s">
+      <c r="S30" s="17"/>
+    </row>
+    <row r="31" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="65" t="s">
+      <c r="B31" s="135"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="50" t="s">
+      <c r="I31" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="63" t="s">
+      <c r="K31" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="58" t="s">
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="80"/>
+      <c r="R31" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="U31" s="20"/>
-    </row>
-    <row r="32" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74" t="s">
+      <c r="S31" s="17"/>
+    </row>
+    <row r="32" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="75"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="66">
+      <c r="B32" s="136"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="37">
         <v>0</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19">
+        <v>1</v>
+      </c>
+      <c r="H32" s="19">
+        <v>3</v>
+      </c>
+      <c r="I32" s="19">
+        <v>5</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="32">
+        <v>2</v>
+      </c>
+      <c r="S32" s="17"/>
+    </row>
+    <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="112"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="37">
+        <v>1</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19">
+        <v>1</v>
+      </c>
+      <c r="H33" s="19">
+        <v>3</v>
+      </c>
+      <c r="I33" s="19">
+        <v>10</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="32">
+        <v>2</v>
+      </c>
+      <c r="S33" s="17"/>
+    </row>
+    <row r="34" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="112"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="37">
+        <v>2</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19">
+        <v>3</v>
+      </c>
+      <c r="H34" s="19">
+        <v>5</v>
+      </c>
+      <c r="I34" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="32">
+        <v>2</v>
+      </c>
+      <c r="S34" s="17"/>
+    </row>
+    <row r="35" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="112"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="37">
+        <v>3</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19">
+        <v>5</v>
+      </c>
+      <c r="H35" s="19">
+        <v>5</v>
+      </c>
+      <c r="I35" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="32">
+        <v>2</v>
+      </c>
+      <c r="S35" s="17"/>
+    </row>
+    <row r="36" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="112"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="37">
+        <v>4</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19">
+        <v>7</v>
+      </c>
+      <c r="H36" s="19">
+        <v>2</v>
+      </c>
+      <c r="I36" s="19">
+        <v>2</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="32">
+        <v>3</v>
+      </c>
+      <c r="S36" s="17"/>
+    </row>
+    <row r="37" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="112"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="37">
+        <v>5</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19">
+        <v>9</v>
+      </c>
+      <c r="H37" s="19">
+        <v>1</v>
+      </c>
+      <c r="I37" s="19">
+        <v>4</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="32">
+        <v>3</v>
+      </c>
+      <c r="S37" s="17"/>
+    </row>
+    <row r="38" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="112"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="37">
+        <v>6</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19">
+        <v>12</v>
+      </c>
+      <c r="H38" s="19">
+        <v>5</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="32">
+        <v>4</v>
+      </c>
+      <c r="S38" s="17"/>
+    </row>
+    <row r="39" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="112"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="37">
+        <v>7</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19">
+        <v>15</v>
+      </c>
+      <c r="H39" s="19">
+        <v>5</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K39" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="32">
+        <v>4</v>
+      </c>
+      <c r="S39" s="17"/>
+    </row>
+    <row r="40" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="112"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="38">
+        <v>8</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24">
+        <v>17</v>
+      </c>
+      <c r="H40" s="24">
+        <v>1</v>
+      </c>
+      <c r="I40" s="24">
+        <v>2</v>
+      </c>
+      <c r="J40" s="24">
+        <v>3</v>
+      </c>
+      <c r="K40" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="34">
+        <v>5</v>
+      </c>
+      <c r="S40" s="17"/>
+    </row>
+    <row r="41" spans="1:19" s="8" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="141"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="39">
+        <v>9</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20">
+        <v>20</v>
+      </c>
+      <c r="H41" s="20">
+        <v>4</v>
+      </c>
+      <c r="I41" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21">
-        <v>1</v>
-      </c>
-      <c r="H32" s="21">
-        <v>3</v>
-      </c>
-      <c r="I32" s="21">
+      <c r="J41" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K41" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="33">
         <v>5</v>
       </c>
-      <c r="J32" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="K32" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="59">
-        <v>2</v>
-      </c>
-      <c r="U32" s="20"/>
-    </row>
-    <row r="33" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="74"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="66">
-        <v>1</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21">
-        <v>1</v>
-      </c>
-      <c r="H33" s="21">
-        <v>3</v>
-      </c>
-      <c r="I33" s="21">
-        <v>10</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="K33" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="59">
-        <v>2</v>
-      </c>
-      <c r="U33" s="20"/>
-    </row>
-    <row r="34" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="74"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="66">
-        <v>2</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21">
-        <v>3</v>
-      </c>
-      <c r="H34" s="21">
-        <v>5</v>
-      </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="59">
-        <v>2</v>
-      </c>
-      <c r="U34" s="20"/>
-    </row>
-    <row r="35" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="66">
-        <v>3</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21">
-        <v>5</v>
-      </c>
-      <c r="H35" s="21">
-        <v>5</v>
-      </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="59">
-        <v>2</v>
-      </c>
-      <c r="U35" s="20"/>
-    </row>
-    <row r="36" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="66">
-        <v>4</v>
-      </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21">
-        <v>7</v>
-      </c>
-      <c r="H36" s="21">
-        <v>2</v>
-      </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="59">
-        <v>3</v>
-      </c>
-      <c r="U36" s="20"/>
-    </row>
-    <row r="37" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="66">
-        <v>5</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21">
-        <v>9</v>
-      </c>
-      <c r="H37" s="21">
-        <v>1</v>
-      </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="59">
-        <v>3</v>
-      </c>
-      <c r="U37" s="20"/>
-    </row>
-    <row r="38" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="74"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="66">
-        <v>6</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21">
-        <v>12</v>
-      </c>
-      <c r="H38" s="21">
-        <v>5</v>
-      </c>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="59">
-        <v>4</v>
-      </c>
-      <c r="U38" s="20"/>
-    </row>
-    <row r="39" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="74"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="66">
-        <v>7</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21">
-        <v>15</v>
-      </c>
-      <c r="H39" s="21">
-        <v>5</v>
-      </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="59">
-        <v>4</v>
-      </c>
-      <c r="U39" s="20"/>
-    </row>
-    <row r="40" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="74"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="67">
-        <v>8</v>
-      </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36">
-        <v>17</v>
-      </c>
-      <c r="H40" s="36">
-        <v>1</v>
-      </c>
-      <c r="I40" s="36">
-        <v>2</v>
-      </c>
-      <c r="J40" s="36">
-        <v>3</v>
-      </c>
-      <c r="K40" s="42"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="61">
-        <v>5</v>
-      </c>
-      <c r="U40" s="20"/>
-    </row>
-    <row r="41" spans="1:21" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="74"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="68">
-        <v>9</v>
-      </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27">
-        <v>20</v>
-      </c>
-      <c r="H41" s="27">
-        <v>4</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="J41" s="27"/>
-      <c r="K41" s="138"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="60">
-        <v>5</v>
-      </c>
-      <c r="U41" s="20"/>
-    </row>
-    <row r="42" spans="1:21" s="9" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-    </row>
-    <row r="43" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="S41" s="17"/>
+    </row>
+    <row r="42" spans="1:19" s="8" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+    </row>
+    <row r="43" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="K39:S39"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="K32:S32"/>
-    <mergeCell ref="K31:S31"/>
-    <mergeCell ref="K41:S41"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="K33:S33"/>
-    <mergeCell ref="K34:S34"/>
-    <mergeCell ref="K35:S35"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
     <mergeCell ref="D15:D22"/>
     <mergeCell ref="H23:K23"/>
-    <mergeCell ref="K30:S30"/>
-    <mergeCell ref="K29:S29"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K29:Q29"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I17:K17"/>
@@ -3692,14 +3821,24 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3711,8 +3850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5354951-55D5-4E8E-8AF5-DA8FF5226932}">
   <dimension ref="B1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3730,724 +3869,697 @@
   <sheetData>
     <row r="1" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:10" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="90" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="88" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="32">
         <v>2</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="88" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="32">
         <v>1</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="88" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="32">
         <v>2</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="88" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="32">
         <v>1</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="88" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="32">
         <v>4</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="10"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="33">
         <v>10</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="16" spans="2:10" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="134" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="111"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="118" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="111"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="118" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="41" t="s">
+      <c r="D19" s="83"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="112"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="131" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="111"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="121" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="21">
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="102" t="s">
+      <c r="H21" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="59">
+      <c r="I21" s="32">
         <v>1</v>
       </c>
-      <c r="J21" s="76"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="21">
+      <c r="B22" s="9"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="18">
         <v>2</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="102" t="s">
+      <c r="G22" s="123"/>
+      <c r="H22" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="59">
+      <c r="I22" s="32">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J22" s="76"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="21">
+      <c r="B23" s="9"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="18">
         <v>3</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="102" t="s">
+      <c r="G23" s="123"/>
+      <c r="H23" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="59">
+      <c r="I23" s="32">
         <v>3.5</v>
       </c>
-      <c r="J23" s="76"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="21">
+      <c r="B24" s="9"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="18">
         <v>4</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="103" t="s">
+      <c r="G24" s="123"/>
+      <c r="H24" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="104">
+      <c r="I24" s="57">
         <v>5</v>
       </c>
-      <c r="J24" s="76"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="21">
+      <c r="B25" s="9"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="18">
         <v>5</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="102" t="s">
+      <c r="G25" s="123"/>
+      <c r="H25" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="59">
+      <c r="I25" s="32">
         <v>7</v>
       </c>
-      <c r="J25" s="76"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="22" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="76"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="123" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="124"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="115" t="s">
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="76"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="115" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="76"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="115" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="76"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="115" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="10"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="117" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="111"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="34" spans="2:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-    </row>
-    <row r="35" spans="2:16" s="91" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="92"/>
-      <c r="C35" s="94" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="2:16" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="47"/>
+      <c r="C35" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="95" t="s">
+      <c r="D35" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="95"/>
-      <c r="F35" s="96" t="s">
+      <c r="E35" s="120"/>
+      <c r="F35" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="107" t="s">
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="108"/>
-      <c r="L35" s="97" t="s">
+      <c r="K35" s="115"/>
+      <c r="L35" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="M35" s="92"/>
+      <c r="M35" s="47"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="88">
+      <c r="B36" s="9"/>
+      <c r="C36" s="43">
         <v>1</v>
       </c>
-      <c r="D36" s="113">
+      <c r="D36" s="119">
         <v>2</v>
       </c>
-      <c r="E36" s="113"/>
-      <c r="F36" s="21" t="s">
+      <c r="E36" s="119"/>
+      <c r="F36" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="38">
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="110">
         <v>5</v>
       </c>
-      <c r="K36" s="39"/>
-      <c r="L36" s="59" t="s">
+      <c r="K36" s="111"/>
+      <c r="L36" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="M36" s="10"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-      <c r="C37" s="88">
+      <c r="B37" s="9"/>
+      <c r="C37" s="43">
         <v>1</v>
       </c>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="21" t="s">
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="38">
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="110">
         <v>10</v>
       </c>
-      <c r="K37" s="39"/>
-      <c r="L37" s="59" t="s">
+      <c r="K37" s="111"/>
+      <c r="L37" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="M37" s="10"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
-      <c r="C38" s="88">
+      <c r="B38" s="9"/>
+      <c r="C38" s="43">
         <v>3</v>
       </c>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="21" t="s">
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="38">
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="110">
         <v>0.2</v>
       </c>
-      <c r="K38" s="39"/>
-      <c r="L38" s="59" t="s">
+      <c r="K38" s="111"/>
+      <c r="L38" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="M38" s="10"/>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
-      <c r="C39" s="88">
+      <c r="B39" s="9"/>
+      <c r="C39" s="43">
         <v>5</v>
       </c>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="21" t="s">
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="38">
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="110">
         <v>0.2</v>
       </c>
-      <c r="K39" s="39"/>
-      <c r="L39" s="59" t="s">
+      <c r="K39" s="111"/>
+      <c r="L39" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="M39" s="10"/>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="88">
+      <c r="B40" s="9"/>
+      <c r="C40" s="43">
         <v>7</v>
       </c>
-      <c r="D40" s="113">
+      <c r="D40" s="119">
         <v>3</v>
       </c>
-      <c r="E40" s="113"/>
-      <c r="F40" s="21" t="s">
+      <c r="E40" s="119"/>
+      <c r="F40" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="38">
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="110">
         <v>2</v>
       </c>
-      <c r="K40" s="39"/>
-      <c r="L40" s="59" t="s">
+      <c r="K40" s="111"/>
+      <c r="L40" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="M40" s="93"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="88">
+      <c r="B41" s="9"/>
+      <c r="C41" s="43">
         <v>9</v>
       </c>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="21" t="s">
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="38">
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="110">
         <v>4</v>
       </c>
-      <c r="K41" s="39"/>
-      <c r="L41" s="59" t="s">
+      <c r="K41" s="111"/>
+      <c r="L41" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="M41" s="10"/>
+      <c r="M41" s="9"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="10"/>
-      <c r="C42" s="88">
+      <c r="B42" s="9"/>
+      <c r="C42" s="43">
         <v>12</v>
       </c>
-      <c r="D42" s="113">
+      <c r="D42" s="119">
         <v>4</v>
       </c>
-      <c r="E42" s="113"/>
-      <c r="F42" s="21" t="s">
+      <c r="E42" s="119"/>
+      <c r="F42" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="38" t="s">
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="K42" s="39"/>
-      <c r="L42" s="59" t="s">
+      <c r="K42" s="111"/>
+      <c r="L42" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="M42" s="10"/>
+      <c r="M42" s="9"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="88">
+      <c r="B43" s="9"/>
+      <c r="C43" s="43">
         <v>15</v>
       </c>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="21" t="s">
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="38" t="s">
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="K43" s="39"/>
-      <c r="L43" s="59" t="s">
+      <c r="K43" s="111"/>
+      <c r="L43" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="M43" s="10"/>
+      <c r="M43" s="9"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="24">
+      <c r="B44" s="9"/>
+      <c r="C44" s="85">
         <v>17</v>
       </c>
-      <c r="D44" s="113">
+      <c r="D44" s="119">
         <v>5</v>
       </c>
-      <c r="E44" s="113"/>
-      <c r="F44" s="22" t="s">
+      <c r="E44" s="119"/>
+      <c r="F44" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="H44" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="J44" s="38" t="s">
+      <c r="J44" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="K44" s="39"/>
-      <c r="L44" s="59" t="s">
+      <c r="K44" s="111"/>
+      <c r="L44" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="M44" s="10"/>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="21">
+      <c r="B45" s="9"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="18">
         <v>2</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="18">
         <v>3</v>
       </c>
-      <c r="J45" s="38">
+      <c r="J45" s="110">
         <v>2</v>
       </c>
-      <c r="K45" s="39"/>
-      <c r="L45" s="59">
+      <c r="K45" s="111"/>
+      <c r="L45" s="32">
         <v>3</v>
       </c>
-      <c r="M45" s="10"/>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="10"/>
-      <c r="C46" s="89">
+      <c r="B46" s="9"/>
+      <c r="C46" s="44">
         <v>20</v>
       </c>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="27" t="s">
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="28" t="s">
+      <c r="G46" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="109" t="s">
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="K46" s="99"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="10"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="9"/>
     </row>
     <row r="47" spans="2:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C27:E31"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D40:E41"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E39"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="C2:I3"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="C44:C45"/>
@@ -4460,7 +4572,34 @@
     <mergeCell ref="C21:E26"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C2:I3"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D40:E41"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E39"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C27:E31"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획/컨텐츠 기획/(김찬우)룬 컨텐츠 기획.xlsx
+++ b/기획/컨텐츠 기획/(김찬우)룬 컨텐츠 기획.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0623_\Desktop\1team_UnityProject\기획\컨텐츠 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C150A369-CF7B-45C6-A152-93C9DEDED5C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBDA781-BA80-4DE1-9C5C-498A4F90C932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A4D09CD8-49D7-4F41-935B-6273C98DD4B6}"/>
+    <workbookView xWindow="-22380" yWindow="4500" windowWidth="18276" windowHeight="9756" activeTab="2" xr2:uid="{A4D09CD8-49D7-4F41-935B-6273C98DD4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="기획" sheetId="1" r:id="rId1"/>
@@ -834,7 +834,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,6 +883,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="53">
     <border>
@@ -1544,7 +1550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1749,6 +1755,39 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1758,12 +1797,81 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1782,71 +1890,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1875,106 +1983,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2308,24 +2317,24 @@
   <sheetData>
     <row r="1" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2392,59 +2401,59 @@
     </row>
     <row r="13" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="9"/>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C14" s="9"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C15" s="9"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C16" s="9"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="9"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
@@ -2526,48 +2535,48 @@
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="9"/>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="9"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="9"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="9"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
@@ -2611,24 +2620,24 @@
   <sheetData>
     <row r="1" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2816,48 +2825,48 @@
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="9"/>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="9"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="9"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="9"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
@@ -2885,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A42448A-65B3-4FBA-8177-653E15DA5067}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2907,24 +2916,24 @@
   <sheetData>
     <row r="1" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="2:12" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2967,17 +2976,17 @@
       <c r="G9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="98"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="83"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C10" s="9"/>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="87" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -2989,15 +2998,15 @@
       <c r="G10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="93"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="85"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C11" s="9"/>
-      <c r="D11" s="85"/>
+      <c r="D11" s="87"/>
       <c r="E11" s="18" t="s">
         <v>17</v>
       </c>
@@ -3007,15 +3016,15 @@
       <c r="G11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="93"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="85"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C12" s="9"/>
-      <c r="D12" s="85"/>
+      <c r="D12" s="87"/>
       <c r="E12" s="18" t="s">
         <v>19</v>
       </c>
@@ -3025,15 +3034,15 @@
       <c r="G12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="93"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C13" s="9"/>
-      <c r="D13" s="85"/>
+      <c r="D13" s="87"/>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
@@ -3043,15 +3052,15 @@
       <c r="G13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="93"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="85"/>
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="9"/>
-      <c r="D14" s="92"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="20" t="s">
         <v>24</v>
       </c>
@@ -3061,103 +3070,103 @@
       <c r="G14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="96"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="100"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C15" s="9"/>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="107" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="94" t="s">
+      <c r="I15" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C16" s="9"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
       <c r="H16" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="72"/>
-      <c r="K16" s="93"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C17" s="9"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
       <c r="H17" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="72" t="s">
+      <c r="I17" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="93"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C18" s="9"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
       <c r="H18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="72" t="s">
+      <c r="I18" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="72"/>
-      <c r="K18" s="93"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C19" s="9"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
       <c r="H19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="76" t="s">
+      <c r="I19" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="77"/>
-      <c r="K19" s="78"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C20" s="9"/>
-      <c r="D20" s="85"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="18" t="s">
         <v>35</v>
       </c>
@@ -3167,17 +3176,17 @@
       <c r="G20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="93"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="85"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C21" s="9"/>
-      <c r="D21" s="85"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="18" t="s">
         <v>36</v>
       </c>
@@ -3187,17 +3196,17 @@
       <c r="G21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="93"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="85"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="9"/>
-      <c r="D22" s="86"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="24" t="s">
         <v>37</v>
       </c>
@@ -3207,12 +3216,12 @@
       <c r="G22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="99" t="s">
+      <c r="H22" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="100"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="102"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3229,12 +3238,12 @@
       <c r="G23" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="87" t="s">
+      <c r="H23" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="89"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="91"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
@@ -3285,11 +3294,11 @@
       <c r="S28" s="9"/>
     </row>
     <row r="29" spans="1:19" s="29" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="138" t="s">
+      <c r="A29" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="139"/>
-      <c r="C29" s="140"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="35" t="s">
         <v>45</v>
       </c>
@@ -3311,15 +3320,15 @@
       <c r="J29" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="90" t="s">
+      <c r="K29" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
       <c r="R29" s="30" t="s">
         <v>39</v>
       </c>
@@ -3329,8 +3338,8 @@
       <c r="A30" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="135"/>
-      <c r="C30" s="132"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="36" t="s">
         <v>13</v>
       </c>
@@ -3352,15 +3361,15 @@
       <c r="J30" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="79" t="s">
+      <c r="K30" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
       <c r="R30" s="31" t="s">
         <v>40</v>
       </c>
@@ -3370,8 +3379,8 @@
       <c r="A31" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="135"/>
-      <c r="C31" s="132"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="36" t="s">
         <v>15</v>
       </c>
@@ -3393,26 +3402,26 @@
       <c r="J31" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="79" t="s">
+      <c r="K31" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
       <c r="R31" s="31" t="s">
         <v>33</v>
       </c>
       <c r="S31" s="17"/>
     </row>
     <row r="32" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="112" t="s">
+      <c r="A32" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="136"/>
-      <c r="C32" s="133"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="37">
         <v>0</v>
       </c>
@@ -3432,24 +3441,24 @@
       <c r="J32" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K32" s="71" t="s">
+      <c r="K32" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
       <c r="R32" s="32">
         <v>2</v>
       </c>
       <c r="S32" s="17"/>
     </row>
     <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="112"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="134"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="37">
         <v>1</v>
       </c>
@@ -3469,25 +3478,25 @@
       <c r="J33" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K33" s="71" t="s">
+      <c r="K33" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
       <c r="R33" s="32">
         <v>2</v>
       </c>
       <c r="S33" s="17"/>
     </row>
     <row r="34" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="112"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="37">
+      <c r="A34" s="104"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="144">
         <v>2</v>
       </c>
       <c r="E34" s="19" t="s">
@@ -3506,25 +3515,25 @@
       <c r="J34" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K34" s="71" t="s">
+      <c r="K34" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
       <c r="R34" s="32">
         <v>2</v>
       </c>
       <c r="S34" s="17"/>
     </row>
     <row r="35" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="112"/>
-      <c r="B35" s="137"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="37">
+      <c r="A35" s="104"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="144">
         <v>3</v>
       </c>
       <c r="E35" s="19" t="s">
@@ -3543,24 +3552,24 @@
       <c r="J35" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K35" s="71" t="s">
+      <c r="K35" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
       <c r="R35" s="32">
         <v>2</v>
       </c>
       <c r="S35" s="17"/>
     </row>
     <row r="36" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="112"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="134"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="37">
         <v>4</v>
       </c>
@@ -3580,24 +3589,24 @@
       <c r="J36" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K36" s="71" t="s">
+      <c r="K36" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
       <c r="R36" s="32">
         <v>3</v>
       </c>
       <c r="S36" s="17"/>
     </row>
     <row r="37" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="112"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="134"/>
+      <c r="A37" s="104"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="37">
         <v>5</v>
       </c>
@@ -3617,25 +3626,25 @@
       <c r="J37" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K37" s="71" t="s">
+      <c r="K37" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
       <c r="R37" s="32">
         <v>3</v>
       </c>
       <c r="S37" s="17"/>
     </row>
     <row r="38" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="112"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="37">
+      <c r="A38" s="104"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="144">
         <v>6</v>
       </c>
       <c r="E38" s="19" t="s">
@@ -3654,25 +3663,25 @@
       <c r="J38" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K38" s="71" t="s">
+      <c r="K38" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="84"/>
       <c r="R38" s="32">
         <v>4</v>
       </c>
       <c r="S38" s="17"/>
     </row>
     <row r="39" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="112"/>
-      <c r="B39" s="137"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="37">
+      <c r="A39" s="104"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="144">
         <v>7</v>
       </c>
       <c r="E39" s="19" t="s">
@@ -3691,24 +3700,24 @@
       <c r="J39" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K39" s="71" t="s">
+      <c r="K39" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84"/>
       <c r="R39" s="32">
         <v>4</v>
       </c>
       <c r="S39" s="17"/>
     </row>
     <row r="40" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="112"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="134"/>
+      <c r="A40" s="104"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="38">
         <v>8</v>
       </c>
@@ -3728,24 +3737,24 @@
       <c r="J40" s="24">
         <v>3</v>
       </c>
-      <c r="K40" s="71" t="s">
+      <c r="K40" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="84"/>
       <c r="R40" s="34">
         <v>5</v>
       </c>
       <c r="S40" s="17"/>
     </row>
     <row r="41" spans="1:19" s="8" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="141"/>
-      <c r="B41" s="142"/>
-      <c r="C41" s="143"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
       <c r="D41" s="39">
         <v>9</v>
       </c>
@@ -3765,15 +3774,15 @@
       <c r="J41" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="81" t="s">
+      <c r="K41" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="82"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="99"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="99"/>
       <c r="R41" s="33">
         <v>5</v>
       </c>
@@ -3804,11 +3813,20 @@
     <row r="44" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="K40:Q40"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="D15:D22"/>
     <mergeCell ref="H23:K23"/>
@@ -3823,22 +3841,13 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="H22:K22"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="K40:Q40"/>
     <mergeCell ref="G15:G19"/>
     <mergeCell ref="F15:F19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3869,25 +3878,25 @@
   <sheetData>
     <row r="1" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -3996,11 +4005,11 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="66"/>
       <c r="G17" s="66"/>
       <c r="H17" s="66"/>
@@ -4009,11 +4018,11 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="113"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
       <c r="F18" s="58"/>
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
@@ -4022,43 +4031,43 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="77" t="s">
+      <c r="D19" s="122"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="78"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="112"/>
       <c r="J19" s="61"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
       <c r="I20" s="52"/>
       <c r="J20" s="60"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="123" t="s">
+      <c r="G21" s="115" t="s">
         <v>74</v>
       </c>
       <c r="H21" s="55" t="s">
@@ -4071,13 +4080,13 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="18">
         <v>2</v>
       </c>
-      <c r="G22" s="123"/>
+      <c r="G22" s="115"/>
       <c r="H22" s="55" t="s">
         <v>75</v>
       </c>
@@ -4088,13 +4097,13 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="18">
         <v>3</v>
       </c>
-      <c r="G23" s="123"/>
+      <c r="G23" s="115"/>
       <c r="H23" s="55" t="s">
         <v>76</v>
       </c>
@@ -4105,13 +4114,13 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="18">
         <v>4</v>
       </c>
-      <c r="G24" s="123"/>
+      <c r="G24" s="115"/>
       <c r="H24" s="56" t="s">
         <v>77</v>
       </c>
@@ -4122,13 +4131,13 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
       <c r="F25" s="18">
         <v>5</v>
       </c>
-      <c r="G25" s="123"/>
+      <c r="G25" s="115"/>
       <c r="H25" s="55" t="s">
         <v>78</v>
       </c>
@@ -4139,24 +4148,24 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="123" t="s">
+      <c r="C26" s="120"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="124"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="116"/>
       <c r="J26" s="40"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
-      <c r="C27" s="101" t="s">
+      <c r="C27" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="137"/>
       <c r="F27" s="62" t="s">
         <v>102</v>
       </c>
@@ -4167,9 +4176,9 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="106"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="140"/>
       <c r="F28" s="62" t="s">
         <v>103</v>
       </c>
@@ -4180,9 +4189,9 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="106"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="140"/>
       <c r="F29" s="62" t="s">
         <v>104</v>
       </c>
@@ -4193,9 +4202,9 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="106"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="140"/>
       <c r="F30" s="62" t="s">
         <v>105</v>
       </c>
@@ -4206,9 +4215,9 @@
     </row>
     <row r="31" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="9"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="109"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="143"/>
       <c r="F31" s="64" t="s">
         <v>106</v>
       </c>
@@ -4247,22 +4256,22 @@
       <c r="C35" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="120" t="s">
+      <c r="D35" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="120"/>
+      <c r="E35" s="134"/>
       <c r="F35" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="120" t="s">
+      <c r="G35" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="114" t="s">
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="115"/>
+      <c r="K35" s="133"/>
       <c r="L35" s="51" t="s">
         <v>95</v>
       </c>
@@ -4273,22 +4282,22 @@
       <c r="C36" s="43">
         <v>1</v>
       </c>
-      <c r="D36" s="119">
+      <c r="D36" s="117">
         <v>2</v>
       </c>
-      <c r="E36" s="119"/>
+      <c r="E36" s="117"/>
       <c r="F36" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="72" t="s">
+      <c r="G36" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="110">
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="130">
         <v>5</v>
       </c>
-      <c r="K36" s="111"/>
+      <c r="K36" s="131"/>
       <c r="L36" s="32" t="s">
         <v>84</v>
       </c>
@@ -4299,20 +4308,20 @@
       <c r="C37" s="43">
         <v>1</v>
       </c>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
       <c r="F37" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="72" t="s">
+      <c r="G37" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="110">
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="130">
         <v>10</v>
       </c>
-      <c r="K37" s="111"/>
+      <c r="K37" s="131"/>
       <c r="L37" s="32" t="s">
         <v>84</v>
       </c>
@@ -4323,20 +4332,20 @@
       <c r="C38" s="43">
         <v>3</v>
       </c>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
       <c r="F38" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="110">
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="130">
         <v>0.2</v>
       </c>
-      <c r="K38" s="111"/>
+      <c r="K38" s="131"/>
       <c r="L38" s="32" t="s">
         <v>84</v>
       </c>
@@ -4347,20 +4356,20 @@
       <c r="C39" s="43">
         <v>5</v>
       </c>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
       <c r="F39" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G39" s="72" t="s">
+      <c r="G39" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="110">
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="130">
         <v>0.2</v>
       </c>
-      <c r="K39" s="111"/>
+      <c r="K39" s="131"/>
       <c r="L39" s="32" t="s">
         <v>84</v>
       </c>
@@ -4371,22 +4380,22 @@
       <c r="C40" s="43">
         <v>7</v>
       </c>
-      <c r="D40" s="119">
+      <c r="D40" s="117">
         <v>3</v>
       </c>
-      <c r="E40" s="119"/>
+      <c r="E40" s="117"/>
       <c r="F40" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="72" t="s">
+      <c r="G40" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="110">
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="130">
         <v>2</v>
       </c>
-      <c r="K40" s="111"/>
+      <c r="K40" s="131"/>
       <c r="L40" s="32" t="s">
         <v>84</v>
       </c>
@@ -4400,20 +4409,20 @@
       <c r="C41" s="43">
         <v>9</v>
       </c>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
       <c r="F41" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="72" t="s">
+      <c r="G41" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="110">
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="130">
         <v>4</v>
       </c>
-      <c r="K41" s="111"/>
+      <c r="K41" s="131"/>
       <c r="L41" s="32" t="s">
         <v>84</v>
       </c>
@@ -4424,22 +4433,22 @@
       <c r="C42" s="43">
         <v>12</v>
       </c>
-      <c r="D42" s="119">
+      <c r="D42" s="117">
         <v>4</v>
       </c>
-      <c r="E42" s="119"/>
+      <c r="E42" s="117"/>
       <c r="F42" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="72" t="s">
+      <c r="G42" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="110" t="s">
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="K42" s="111"/>
+      <c r="K42" s="131"/>
       <c r="L42" s="32" t="s">
         <v>84</v>
       </c>
@@ -4450,20 +4459,20 @@
       <c r="C43" s="43">
         <v>15</v>
       </c>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
       <c r="F43" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="72" t="s">
+      <c r="G43" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="110" t="s">
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="K43" s="111"/>
+      <c r="K43" s="131"/>
       <c r="L43" s="32" t="s">
         <v>84</v>
       </c>
@@ -4471,17 +4480,17 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
-      <c r="C44" s="85">
+      <c r="C44" s="87">
         <v>17</v>
       </c>
-      <c r="D44" s="119">
+      <c r="D44" s="117">
         <v>5</v>
       </c>
-      <c r="E44" s="119"/>
-      <c r="F44" s="123" t="s">
+      <c r="E44" s="117"/>
+      <c r="F44" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="123" t="s">
+      <c r="G44" s="115" t="s">
         <v>82</v>
       </c>
       <c r="H44" s="18" t="s">
@@ -4490,10 +4499,10 @@
       <c r="I44" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="J44" s="110" t="s">
+      <c r="J44" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="K44" s="111"/>
+      <c r="K44" s="131"/>
       <c r="L44" s="32" t="s">
         <v>86</v>
       </c>
@@ -4501,21 +4510,21 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
       <c r="H45" s="18">
         <v>2</v>
       </c>
       <c r="I45" s="18">
         <v>3</v>
       </c>
-      <c r="J45" s="110">
+      <c r="J45" s="130">
         <v>2</v>
       </c>
-      <c r="K45" s="111"/>
+      <c r="K45" s="131"/>
       <c r="L45" s="32">
         <v>3</v>
       </c>
@@ -4526,21 +4535,21 @@
       <c r="C46" s="44">
         <v>20</v>
       </c>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
       <c r="F46" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="82" t="s">
+      <c r="G46" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="116" t="s">
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="K46" s="117"/>
-      <c r="L46" s="118"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="129"/>
       <c r="M46" s="9"/>
     </row>
     <row r="47" spans="2:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
@@ -4559,19 +4568,17 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C2:I3"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="D44:E46"/>
-    <mergeCell ref="D42:E43"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="C21:E26"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D40:E41"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E39"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
     <mergeCell ref="J46:L46"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J44:K44"/>
@@ -4586,20 +4593,22 @@
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="J43:K43"/>
+    <mergeCell ref="C2:I3"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="D44:E46"/>
+    <mergeCell ref="D42:E43"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="C21:E26"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D40:E41"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E39"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
     <mergeCell ref="C27:E31"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획/컨텐츠 기획/(김찬우)룬 컨텐츠 기획.xlsx
+++ b/기획/컨텐츠 기획/(김찬우)룬 컨텐츠 기획.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0623_\Desktop\1team_UnityProject\기획\컨텐츠 기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\1team_UnityProject\기획\컨텐츠 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBDA781-BA80-4DE1-9C5C-498A4F90C932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76A4A25-B587-41C6-AF2A-092451E8DDAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22380" yWindow="4500" windowWidth="18276" windowHeight="9756" activeTab="2" xr2:uid="{A4D09CD8-49D7-4F41-935B-6273C98DD4B6}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15045" windowHeight="13245" activeTab="2" xr2:uid="{A4D09CD8-49D7-4F41-935B-6273C98DD4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="기획" sheetId="1" r:id="rId1"/>
@@ -1550,7 +1550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1662,15 +1662,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1788,6 +1779,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1797,15 +1791,48 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1827,12 +1854,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1848,9 +1869,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1860,35 +1878,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1902,9 +1923,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1932,30 +1950,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1983,7 +1977,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2317,24 +2314,24 @@
   <sheetData>
     <row r="1" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2401,59 +2398,59 @@
     </row>
     <row r="13" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="9"/>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C14" s="9"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C15" s="9"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C16" s="9"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="9"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
@@ -2535,48 +2532,48 @@
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="9"/>
-      <c r="D26" s="79" t="s">
+      <c r="D26" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="9"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="9"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="9"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
@@ -2620,24 +2617,24 @@
   <sheetData>
     <row r="1" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2825,48 +2822,48 @@
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="9"/>
-      <c r="D25" s="79" t="s">
+      <c r="D25" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="9"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="9"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="9"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
@@ -2894,8 +2891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A42448A-65B3-4FBA-8177-653E15DA5067}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2916,24 +2913,24 @@
   <sheetData>
     <row r="1" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="2:12" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2976,17 +2973,17 @@
       <c r="G9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="110"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C10" s="9"/>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -2998,15 +2995,15 @@
       <c r="G10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="94"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C11" s="9"/>
-      <c r="D11" s="87"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="18" t="s">
         <v>17</v>
       </c>
@@ -3016,15 +3013,15 @@
       <c r="G11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="85"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="94"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C12" s="9"/>
-      <c r="D12" s="87"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="18" t="s">
         <v>19</v>
       </c>
@@ -3034,15 +3031,15 @@
       <c r="G12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="85"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="94"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C13" s="9"/>
-      <c r="D13" s="87"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
@@ -3052,15 +3049,15 @@
       <c r="G13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="85"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="94"/>
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="9"/>
-      <c r="D14" s="96"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="20" t="s">
         <v>24</v>
       </c>
@@ -3070,103 +3067,103 @@
       <c r="G14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="100"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="106"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C15" s="9"/>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="107" t="s">
+      <c r="E15" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="107" t="s">
+      <c r="F15" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="107" t="s">
+      <c r="G15" s="80" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="97" t="s">
+      <c r="I15" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="97"/>
-      <c r="K15" s="98"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="105"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C16" s="9"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="84" t="s">
+      <c r="I16" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="84"/>
-      <c r="K16" s="85"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="94"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C17" s="9"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="84" t="s">
+      <c r="I17" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="84"/>
-      <c r="K17" s="85"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="94"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C18" s="9"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="84" t="s">
+      <c r="I18" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="94"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C19" s="9"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="110" t="s">
+      <c r="I19" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="111"/>
-      <c r="K19" s="112"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C20" s="9"/>
-      <c r="D20" s="87"/>
+      <c r="D20" s="96"/>
       <c r="E20" s="18" t="s">
         <v>35</v>
       </c>
@@ -3176,17 +3173,17 @@
       <c r="G20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="84" t="s">
+      <c r="H20" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="85"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="94"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C21" s="9"/>
-      <c r="D21" s="87"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="18" t="s">
         <v>36</v>
       </c>
@@ -3196,17 +3193,17 @@
       <c r="G21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="84" t="s">
+      <c r="H21" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="85"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="94"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="9"/>
-      <c r="D22" s="88"/>
+      <c r="D22" s="97"/>
       <c r="E22" s="24" t="s">
         <v>37</v>
       </c>
@@ -3216,34 +3213,34 @@
       <c r="G22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="101" t="s">
+      <c r="H22" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="102"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="108"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="9"/>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="89" t="s">
+      <c r="H23" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="100"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
@@ -3294,11 +3291,11 @@
       <c r="S28" s="9"/>
     </row>
     <row r="29" spans="1:19" s="29" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="76"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="35" t="s">
         <v>45</v>
       </c>
@@ -3320,26 +3317,26 @@
       <c r="J29" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="94" t="s">
+      <c r="K29" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
       <c r="R29" s="30" t="s">
         <v>39</v>
       </c>
       <c r="S29" s="27"/>
     </row>
     <row r="30" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="36" t="s">
         <v>13</v>
       </c>
@@ -3361,26 +3358,26 @@
       <c r="J30" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="92" t="s">
+      <c r="K30" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
       <c r="R30" s="31" t="s">
         <v>40</v>
       </c>
       <c r="S30" s="17"/>
     </row>
     <row r="31" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="36" t="s">
         <v>15</v>
       </c>
@@ -3402,27 +3399,27 @@
       <c r="J31" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="92" t="s">
+      <c r="K31" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="93"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
       <c r="R31" s="31" t="s">
         <v>33</v>
       </c>
       <c r="S31" s="17"/>
     </row>
     <row r="32" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="104" t="s">
+      <c r="A32" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="37">
+      <c r="B32" s="69"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="76">
         <v>0</v>
       </c>
       <c r="E32" s="19" t="s">
@@ -3441,25 +3438,25 @@
       <c r="J32" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K32" s="106" t="s">
+      <c r="K32" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
       <c r="R32" s="32">
         <v>2</v>
       </c>
       <c r="S32" s="17"/>
     </row>
     <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="104"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="37">
+      <c r="A33" s="92"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="76">
         <v>1</v>
       </c>
       <c r="E33" s="19" t="s">
@@ -3478,25 +3475,25 @@
       <c r="J33" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K33" s="106" t="s">
+      <c r="K33" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
       <c r="R33" s="32">
         <v>2</v>
       </c>
       <c r="S33" s="17"/>
     </row>
     <row r="34" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="104"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="144">
+      <c r="A34" s="92"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="76">
         <v>2</v>
       </c>
       <c r="E34" s="19" t="s">
@@ -3515,25 +3512,25 @@
       <c r="J34" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K34" s="106" t="s">
+      <c r="K34" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
       <c r="R34" s="32">
         <v>2</v>
       </c>
       <c r="S34" s="17"/>
     </row>
     <row r="35" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="104"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="144">
+      <c r="A35" s="92"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="76">
         <v>3</v>
       </c>
       <c r="E35" s="19" t="s">
@@ -3552,25 +3549,25 @@
       <c r="J35" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K35" s="106" t="s">
+      <c r="K35" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
       <c r="R35" s="32">
         <v>2</v>
       </c>
       <c r="S35" s="17"/>
     </row>
     <row r="36" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="104"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="37">
+      <c r="A36" s="92"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="76">
         <v>4</v>
       </c>
       <c r="E36" s="19" t="s">
@@ -3589,25 +3586,25 @@
       <c r="J36" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K36" s="106" t="s">
+      <c r="K36" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
       <c r="R36" s="32">
         <v>3</v>
       </c>
       <c r="S36" s="17"/>
     </row>
     <row r="37" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="104"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="37">
+      <c r="A37" s="92"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="76">
         <v>5</v>
       </c>
       <c r="E37" s="19" t="s">
@@ -3626,25 +3623,25 @@
       <c r="J37" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K37" s="106" t="s">
+      <c r="K37" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="84"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
       <c r="R37" s="32">
         <v>3</v>
       </c>
       <c r="S37" s="17"/>
     </row>
     <row r="38" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="104"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="144">
+      <c r="A38" s="92"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="76">
         <v>6</v>
       </c>
       <c r="E38" s="19" t="s">
@@ -3663,25 +3660,25 @@
       <c r="J38" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K38" s="106" t="s">
+      <c r="K38" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="84"/>
-      <c r="Q38" s="84"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
       <c r="R38" s="32">
         <v>4</v>
       </c>
       <c r="S38" s="17"/>
     </row>
     <row r="39" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="104"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="144">
+      <c r="A39" s="92"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="76">
         <v>7</v>
       </c>
       <c r="E39" s="19" t="s">
@@ -3700,25 +3697,25 @@
       <c r="J39" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K39" s="106" t="s">
+      <c r="K39" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="84"/>
-      <c r="Q39" s="84"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
       <c r="R39" s="32">
         <v>4</v>
       </c>
       <c r="S39" s="17"/>
     </row>
     <row r="40" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="104"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="38">
+      <c r="A40" s="92"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="142">
         <v>8</v>
       </c>
       <c r="E40" s="24" t="s">
@@ -3737,25 +3734,25 @@
       <c r="J40" s="24">
         <v>3</v>
       </c>
-      <c r="K40" s="106" t="s">
+      <c r="K40" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="84"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
       <c r="R40" s="34">
         <v>5</v>
       </c>
       <c r="S40" s="17"/>
     </row>
     <row r="41" spans="1:19" s="8" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="105"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="39">
+      <c r="A41" s="93"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="143">
         <v>9</v>
       </c>
       <c r="E41" s="20" t="s">
@@ -3774,15 +3771,15 @@
       <c r="J41" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="103" t="s">
+      <c r="K41" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
-      <c r="N41" s="99"/>
-      <c r="O41" s="99"/>
-      <c r="P41" s="99"/>
-      <c r="Q41" s="99"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="91"/>
+      <c r="Q41" s="91"/>
       <c r="R41" s="33">
         <v>5</v>
       </c>
@@ -3813,20 +3810,11 @@
     <row r="44" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="D15:D22"/>
     <mergeCell ref="H23:K23"/>
@@ -3843,11 +3831,20 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="G15:G19"/>
     <mergeCell ref="F15:F19"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3878,25 +3875,25 @@
   <sheetData>
     <row r="1" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -3908,7 +3905,7 @@
     </row>
     <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="42" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="30" t="s">
@@ -3918,7 +3915,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="40" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="32">
@@ -3933,7 +3930,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="40" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="32">
@@ -3948,7 +3945,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="32">
@@ -3958,7 +3955,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="40" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="32">
@@ -3968,7 +3965,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="40" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="32">
@@ -3978,7 +3975,7 @@
     </row>
     <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9"/>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="41" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="33">
@@ -4005,226 +4002,226 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
-      <c r="C17" s="113" t="s">
+      <c r="C17" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="60"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="57"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="111" t="s">
+      <c r="D19" s="128"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="61"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="60"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="115" t="s">
+      <c r="G21" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="55" t="s">
+      <c r="H21" s="52" t="s">
         <v>73</v>
       </c>
       <c r="I21" s="32">
         <v>1</v>
       </c>
-      <c r="J21" s="40"/>
+      <c r="J21" s="37"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="18">
         <v>2</v>
       </c>
-      <c r="G22" s="115"/>
-      <c r="H22" s="55" t="s">
+      <c r="G22" s="122"/>
+      <c r="H22" s="52" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="32">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J22" s="40"/>
+      <c r="J22" s="37"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="18">
         <v>3</v>
       </c>
-      <c r="G23" s="115"/>
-      <c r="H23" s="55" t="s">
+      <c r="G23" s="122"/>
+      <c r="H23" s="52" t="s">
         <v>76</v>
       </c>
       <c r="I23" s="32">
         <v>3.5</v>
       </c>
-      <c r="J23" s="40"/>
+      <c r="J23" s="37"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="18">
         <v>4</v>
       </c>
-      <c r="G24" s="115"/>
-      <c r="H24" s="56" t="s">
+      <c r="G24" s="122"/>
+      <c r="H24" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="54">
         <v>5</v>
       </c>
-      <c r="J24" s="40"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
       <c r="F25" s="18">
         <v>5</v>
       </c>
-      <c r="G25" s="115"/>
-      <c r="H25" s="55" t="s">
+      <c r="G25" s="122"/>
+      <c r="H25" s="52" t="s">
         <v>78</v>
       </c>
       <c r="I25" s="32">
         <v>7</v>
       </c>
-      <c r="J25" s="40"/>
+      <c r="J25" s="37"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="115" t="s">
+      <c r="C26" s="126"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="40"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="37"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
-      <c r="C27" s="135" t="s">
+      <c r="C27" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="136"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="62" t="s">
+      <c r="D27" s="134"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="40"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="62" t="s">
+      <c r="C28" s="136"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="40"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="62" t="s">
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="40"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="62" t="s">
+      <c r="C30" s="136"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="40"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="37"/>
     </row>
     <row r="31" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="9"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="64" t="s">
+      <c r="C31" s="139"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="60"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="57"/>
     </row>
     <row r="32" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
@@ -4251,53 +4248,53 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="2:16" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="47"/>
-      <c r="C35" s="49" t="s">
+    <row r="35" spans="2:16" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="44"/>
+      <c r="C35" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="134" t="s">
+      <c r="D35" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="134"/>
-      <c r="F35" s="50" t="s">
+      <c r="E35" s="116"/>
+      <c r="F35" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="134" t="s">
+      <c r="G35" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="134"/>
-      <c r="I35" s="134"/>
-      <c r="J35" s="132" t="s">
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="133"/>
-      <c r="L35" s="51" t="s">
+      <c r="K35" s="112"/>
+      <c r="L35" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="M35" s="47"/>
+      <c r="M35" s="44"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
-      <c r="C36" s="43">
+      <c r="C36" s="40">
         <v>1</v>
       </c>
-      <c r="D36" s="117">
+      <c r="D36" s="115">
         <v>2</v>
       </c>
-      <c r="E36" s="117"/>
+      <c r="E36" s="115"/>
       <c r="F36" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="84" t="s">
+      <c r="G36" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="130">
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="113">
         <v>5</v>
       </c>
-      <c r="K36" s="131"/>
+      <c r="K36" s="114"/>
       <c r="L36" s="32" t="s">
         <v>84</v>
       </c>
@@ -4305,23 +4302,23 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
-      <c r="C37" s="43">
+      <c r="C37" s="40">
         <v>1</v>
       </c>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
       <c r="F37" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="84" t="s">
+      <c r="G37" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="130">
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="113">
         <v>10</v>
       </c>
-      <c r="K37" s="131"/>
+      <c r="K37" s="114"/>
       <c r="L37" s="32" t="s">
         <v>84</v>
       </c>
@@ -4329,23 +4326,23 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
-      <c r="C38" s="43">
+      <c r="C38" s="40">
         <v>3</v>
       </c>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
       <c r="F38" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="84" t="s">
+      <c r="G38" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="130">
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="113">
         <v>0.2</v>
       </c>
-      <c r="K38" s="131"/>
+      <c r="K38" s="114"/>
       <c r="L38" s="32" t="s">
         <v>84</v>
       </c>
@@ -4353,23 +4350,23 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
-      <c r="C39" s="43">
+      <c r="C39" s="40">
         <v>5</v>
       </c>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
       <c r="F39" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G39" s="84" t="s">
+      <c r="G39" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="130">
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="113">
         <v>0.2</v>
       </c>
-      <c r="K39" s="131"/>
+      <c r="K39" s="114"/>
       <c r="L39" s="32" t="s">
         <v>84</v>
       </c>
@@ -4377,52 +4374,52 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
-      <c r="C40" s="43">
+      <c r="C40" s="40">
         <v>7</v>
       </c>
-      <c r="D40" s="117">
+      <c r="D40" s="115">
         <v>3</v>
       </c>
-      <c r="E40" s="117"/>
+      <c r="E40" s="115"/>
       <c r="F40" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="84" t="s">
+      <c r="G40" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="130">
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="113">
         <v>2</v>
       </c>
-      <c r="K40" s="131"/>
+      <c r="K40" s="114"/>
       <c r="L40" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="M40" s="48"/>
+      <c r="M40" s="45"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
-      <c r="C41" s="43">
+      <c r="C41" s="40">
         <v>9</v>
       </c>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
       <c r="F41" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="84" t="s">
+      <c r="G41" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="130">
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="113">
         <v>4</v>
       </c>
-      <c r="K41" s="131"/>
+      <c r="K41" s="114"/>
       <c r="L41" s="32" t="s">
         <v>84</v>
       </c>
@@ -4430,25 +4427,25 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
-      <c r="C42" s="43">
+      <c r="C42" s="40">
         <v>12</v>
       </c>
-      <c r="D42" s="117">
+      <c r="D42" s="115">
         <v>4</v>
       </c>
-      <c r="E42" s="117"/>
+      <c r="E42" s="115"/>
       <c r="F42" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="84" t="s">
+      <c r="G42" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="130" t="s">
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="K42" s="131"/>
+      <c r="K42" s="114"/>
       <c r="L42" s="32" t="s">
         <v>84</v>
       </c>
@@ -4456,23 +4453,23 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
-      <c r="C43" s="43">
+      <c r="C43" s="40">
         <v>15</v>
       </c>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
       <c r="F43" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="84" t="s">
+      <c r="G43" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="130" t="s">
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="K43" s="131"/>
+      <c r="K43" s="114"/>
       <c r="L43" s="32" t="s">
         <v>84</v>
       </c>
@@ -4480,17 +4477,17 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
-      <c r="C44" s="87">
+      <c r="C44" s="96">
         <v>17</v>
       </c>
-      <c r="D44" s="117">
+      <c r="D44" s="115">
         <v>5</v>
       </c>
-      <c r="E44" s="117"/>
-      <c r="F44" s="115" t="s">
+      <c r="E44" s="115"/>
+      <c r="F44" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="115" t="s">
+      <c r="G44" s="122" t="s">
         <v>82</v>
       </c>
       <c r="H44" s="18" t="s">
@@ -4499,10 +4496,10 @@
       <c r="I44" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="J44" s="130" t="s">
+      <c r="J44" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="K44" s="131"/>
+      <c r="K44" s="114"/>
       <c r="L44" s="32" t="s">
         <v>86</v>
       </c>
@@ -4510,21 +4507,21 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
       <c r="H45" s="18">
         <v>2</v>
       </c>
       <c r="I45" s="18">
         <v>3</v>
       </c>
-      <c r="J45" s="130">
+      <c r="J45" s="113">
         <v>2</v>
       </c>
-      <c r="K45" s="131"/>
+      <c r="K45" s="114"/>
       <c r="L45" s="32">
         <v>3</v>
       </c>
@@ -4532,24 +4529,24 @@
     </row>
     <row r="46" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="9"/>
-      <c r="C46" s="44">
+      <c r="C46" s="41">
         <v>20</v>
       </c>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
       <c r="F46" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="99" t="s">
+      <c r="G46" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="99"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="127" t="s">
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="K46" s="128"/>
-      <c r="L46" s="129"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="119"/>
       <c r="M46" s="9"/>
     </row>
     <row r="47" spans="2:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
@@ -4568,31 +4565,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D40:E41"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E39"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
     <mergeCell ref="C2:I3"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F26:I26"/>
@@ -4609,6 +4581,31 @@
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C27:E31"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D40:E41"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E39"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
